--- a/Input_Files/Photolysis_Files/FJX_input_by_GC-version.xlsx
+++ b/Input_Files/Photolysis_Files/FJX_input_by_GC-version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be239a439bc7664/Documents/Python/pyMCM/F0AM_Tools/GEOSChem_Emulator/input/Photolysis_Input_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6044586\AppData\Local\Temp\scp41111\uufs\chpc.utah.edu\common\home\u6044586\python_scripts\modules\GEOSChem_Emulator\Input_Files\Photolysis_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{96ECB12D-14F5-42BA-861B-26A3FC394840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B7C007-2059-418C-A2B3-BB5B1056199E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72BEED-60DF-4F0A-B2E3-EC5A42CDE22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="3045" windowWidth="21600" windowHeight="11235" xr2:uid="{EE0A8B66-5E12-4D10-9B3F-5CBF024866F5}"/>
+    <workbookView xWindow="18990" yWindow="2655" windowWidth="15345" windowHeight="13680" xr2:uid="{EE0A8B66-5E12-4D10-9B3F-5CBF024866F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>GEOS-Chem-Version</t>
   </si>
@@ -182,6 +181,78 @@
   </si>
   <si>
     <t>v2021-10</t>
+  </si>
+  <si>
+    <t>13.4.1</t>
+  </si>
+  <si>
+    <t>14.0.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
+  </si>
+  <si>
+    <t>14.0.2</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>14.1.1</t>
+  </si>
+  <si>
+    <t>14.2.0</t>
+  </si>
+  <si>
+    <t>14.2.1</t>
+  </si>
+  <si>
+    <t>14.2.2</t>
+  </si>
+  <si>
+    <t>14.2.3</t>
+  </si>
+  <si>
+    <t>14.3.0</t>
+  </si>
+  <si>
+    <t>14.3.1</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>14.4.1</t>
+  </si>
+  <si>
+    <t>14.4.2</t>
+  </si>
+  <si>
+    <t>14.4.3</t>
+  </si>
+  <si>
+    <t>14.5.0</t>
+  </si>
+  <si>
+    <t>14.5.1</t>
+  </si>
+  <si>
+    <t>14.5.2</t>
+  </si>
+  <si>
+    <t>14.5.3</t>
+  </si>
+  <si>
+    <t>v2024-05</t>
+  </si>
+  <si>
+    <t>v2024-09</t>
+  </si>
+  <si>
+    <t>14.5.2-Hg</t>
+  </si>
+  <si>
+    <t>v2024-09-Hg</t>
   </si>
 </sst>
 </file>
@@ -534,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738C2B82-DB6F-4634-8B3D-D44B1B96D7B6}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +949,174 @@
         <v>48</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
